--- a/data/georgia_census/shida-qartli/qareli/population_total.xlsx
+++ b/data/georgia_census/shida-qartli/qareli/population_total.xlsx
@@ -1369,13 +1369,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15B01611-7BB3-48C3-9DFD-3B32AFB54403}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF35476E-10A5-42F5-8A45-97E3F2194E26}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48819748-C284-4D45-B8D9-A987D775E33B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0A61AC0-7C6B-460D-BE78-8001D532BF9B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC154AC-3336-4BE7-AA55-EC6C849D2643}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A986D39-B62E-43B4-B691-B9FFDF988CB0}"/>
 </file>